--- a/src/asset/download/metode-regula-falsi.xlsx
+++ b/src/asset/download/metode-regula-falsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reyhan Haqiqi\Downloads\project-lecture-metnum\src\asset\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1CDF31-C720-40C4-B684-91EEB0199B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F087EA-EAB1-4439-914C-3222AADF37C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CC101EF-86E5-4B40-A8FE-99A72FB4265E}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>Iterasi</t>
   </si>
   <si>
-    <t>er</t>
+    <t>Metode Regulasi Falsi</t>
   </si>
   <si>
-    <t>Metode Regulasi Falsi</t>
+    <t>galat</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:H756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="10"/>
     </row>
@@ -574,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">

--- a/src/asset/download/metode-regula-falsi.xlsx
+++ b/src/asset/download/metode-regula-falsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reyhan Haqiqi\Downloads\project-lecture-metnum\src\asset\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F087EA-EAB1-4439-914C-3222AADF37C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE58C55-9687-427A-8A86-8E7555622C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CC101EF-86E5-4B40-A8FE-99A72FB4265E}"/>
   </bookViews>
@@ -525,14 +525,14 @@
   <dimension ref="A1:H756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
     <col min="2" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.21875" style="1" customWidth="1"/>
@@ -582,26 +582,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" ref="D6:E8" si="0">(B6^3)-(B6^2)-B6+1</f>
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F6" s="5">
         <f>C6-((E6*(C6-B6))/(E6-D6))</f>
-        <v>1.8571428571428572</v>
+        <v>3.3076923076923075</v>
       </c>
       <c r="G6" s="5">
         <f>(F6^3)-(F6^2)-F6+1</f>
-        <v>2.0991253644314871</v>
+        <v>22.940373236231224</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -611,31 +611,31 @@
       </c>
       <c r="B7" s="5">
         <f>IF(D6*G6&gt;0,F6,B6)</f>
-        <v>1.8571428571428572</v>
+        <v>3.3076923076923075</v>
       </c>
       <c r="C7" s="4">
         <f>IF(D6*G6&lt;0,F6,C6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>2.0991253644314871</v>
+        <v>22.940373236231224</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F7" s="5">
         <f>C7-((E7*(C7-B7))/(E7-D7))</f>
-        <v>1.7522935779816513</v>
+        <v>2.9015191199580932</v>
       </c>
       <c r="G7" s="5">
         <f>(F7^3)-(F7^2)-F7+1</f>
-        <v>1.5576485159791784</v>
+        <v>14.107015153819313</v>
       </c>
       <c r="H7" s="5">
         <f>ABS(F7-F6)/F7</f>
-        <v>5.9835452505609649E-2</v>
+        <v>0.13998639021206266</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -644,31 +644,31 @@
       </c>
       <c r="B8" s="5">
         <f>IF(D7*G7&gt;0,F7,B7)</f>
-        <v>1.7522935779816513</v>
+        <v>2.9015191199580932</v>
       </c>
       <c r="C8" s="4">
         <f>IF(D7*G7&lt;0,F7,C7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>1.5576485159791784</v>
+        <v>14.107015153819313</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F8" s="5">
         <f>C8-((E8*(C8-B8))/(E8-D8))</f>
-        <v>1.6717008740185251</v>
+        <v>2.6298458908837543</v>
       </c>
       <c r="G8" s="5">
         <f>(F8^3)-(F8^2)-F8+1</f>
-        <v>1.2054235151504087</v>
+        <v>9.6423140146604389</v>
       </c>
       <c r="H8" s="5">
         <f>ABS(F8-F7)/F8</f>
-        <v>4.8210002887294739E-2</v>
+        <v>0.10330385898887925</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -677,31 +677,31 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" ref="B9:B20" si="1">IF(D8*G8&gt;0,F8,B8)</f>
-        <v>1.6717008740185251</v>
+        <v>2.6298458908837543</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:C20" si="2">IF(D8*G8&lt;0,F8,C8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" ref="D9:D20" si="3">(B9^3)-(B9^2)-B9+1</f>
-        <v>1.2054235151504087</v>
+        <v>9.6423140146604389</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ref="E9:E20" si="4">(C9^3)-(C9^2)-C9+1</f>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:F20" si="5">C9-((E9*(C9-B9))/(E9-D9))</f>
-        <v>1.6076156209568104</v>
+        <v>2.4333259407873427</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" ref="G9:G20" si="6">(F9^3)-(F9^2)-F9+1</f>
-        <v>0.96272319381178706</v>
+        <v>7.0535046462814162</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ref="H9:H20" si="7">ABS(F9-F8)/F9</f>
-        <v>3.9863542146705934E-2</v>
+        <v>8.0761868684482277E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -710,31 +710,31 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
-        <v>1.6076156209568104</v>
+        <v>2.4333259407873427</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="3"/>
-        <v>0.96272319381178706</v>
+        <v>7.0535046462814162</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="5"/>
-        <v>1.5553143867012387</v>
+        <v>2.2835309004356961</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="6"/>
-        <v>0.78799269264369798</v>
+        <v>5.4094581448590038</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="7"/>
-        <v>3.36274355222166E-2</v>
+        <v>6.559799139265679E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -743,31 +743,31 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
-        <v>1.5553143867012387</v>
+        <v>2.2835309004356961</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="3"/>
-        <v>0.78799269264369798</v>
+        <v>5.4094581448590038</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="5"/>
-        <v>1.5117426396484857</v>
+        <v>2.164986058130002</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="6"/>
-        <v>0.65777649177175412</v>
+        <v>4.2954953901903785</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="7"/>
-        <v>2.882219890475831E-2</v>
+        <v>5.4755476073636566E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -776,31 +776,31 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
-        <v>1.5117426396484857</v>
+        <v>2.164986058130002</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="3"/>
-        <v>0.65777649177175412</v>
+        <v>4.2954953901903785</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="5"/>
-        <v>1.4748316084095232</v>
+        <v>2.0684843006264582</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="6"/>
-        <v>0.55798804803388302</v>
+        <v>3.5031617997261724</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="7"/>
-        <v>2.5027285168350684E-2</v>
+        <v>4.6653367141494602E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -809,31 +809,31 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="1"/>
-        <v>1.4748316084095232</v>
+        <v>2.0684843006264582</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="3"/>
-        <v>0.55798804803388302</v>
+        <v>3.5031617997261724</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="5"/>
-        <v>1.4431270630954334</v>
+        <v>1.9881753237519959</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="6"/>
-        <v>0.47973632457021198</v>
+        <v>2.9179247277444893</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="7"/>
-        <v>2.1969337368038279E-2</v>
+        <v>4.0393307328101598E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -842,31 +842,31 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="1"/>
-        <v>1.4431270630954334</v>
+        <v>1.9881753237519959</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="3"/>
-        <v>0.47973632457021198</v>
+        <v>2.9179247277444893</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="5"/>
-        <v>1.4155750064839494</v>
+        <v>1.9201484684988914</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="6"/>
-        <v>0.41717605033088789</v>
+        <v>2.472411460215759</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="7"/>
-        <v>1.9463508811107543E-2</v>
+        <v>3.5427914231176937E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -875,31 +875,31 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="1"/>
-        <v>1.4155750064839494</v>
+        <v>1.9201484684988914</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="3"/>
-        <v>0.41717605033088789</v>
+        <v>2.472411460215759</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="5"/>
-        <v>1.391391697405354</v>
+        <v>1.8616820413736077</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="6"/>
-        <v>0.36633122189857281</v>
+        <v>2.1247872985092853</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="7"/>
-        <v>1.7380662198640481E-2</v>
+        <v>3.1405162549747401E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -908,31 +908,31 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="1"/>
-        <v>1.391391697405354</v>
+        <v>1.8616820413736077</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="3"/>
-        <v>0.36633122189857281</v>
+        <v>2.1247872985092853</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="5"/>
-        <v>1.3699815222370266</v>
+        <v>1.8108185005670636</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="6"/>
-        <v>0.3244180651553803</v>
+        <v>1.8479069649000666</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="7"/>
-        <v>1.5628075868765665E-2</v>
+        <v>2.8088701761449873E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -941,31 +941,31 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
-        <v>1.3699815222370266</v>
+        <v>1.8108185005670636</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="3"/>
-        <v>0.3244180651553803</v>
+        <v>1.8479069649000666</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="5"/>
-        <v>1.3508832705987355</v>
+        <v>1.7661108823434519</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="6"/>
-        <v>0.28943856098156262</v>
+        <v>1.623502074986098</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="7"/>
-        <v>1.4137603191892716E-2</v>
+        <v>2.5314162700978981E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -974,31 +974,31 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
-        <v>1.3508832705987355</v>
+        <v>1.7661108823434519</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="3"/>
-        <v>0.28943856098156262</v>
+        <v>1.623502074986098</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="5"/>
-        <v>1.3337339325150284</v>
+        <v>1.7264646335724709</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="6"/>
-        <v>0.25992740606548526</v>
+        <v>1.4388940655741362</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="7"/>
-        <v>1.2858140342405868E-2</v>
+        <v>2.2963834879689001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1007,31 +1007,31 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
-        <v>1.3337339325150284</v>
+        <v>1.7264646335724709</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="3"/>
-        <v>0.25992740606548526</v>
+        <v>1.4388940655741362</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="5"/>
-        <v>1.3182436665717465</v>
+        <v>1.6910352403068103</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="6"/>
-        <v>0.23478947289795116</v>
+        <v>1.28504925999705</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="7"/>
-        <v>1.17506848969479E-2</v>
+        <v>2.0951303923880712E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1040,31 +1040,31 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
-        <v>1.3182436665717465</v>
+        <v>1.6910352403068103</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="3"/>
-        <v>0.23478947289795116</v>
+        <v>1.28504925999705</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="5"/>
-        <v>1.3041780976053019</v>
+        <v>1.6591598493159418</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="6"/>
-        <v>0.21319250026359149</v>
+        <v>1.1553829019827608</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="7"/>
-        <v>1.0785006275041311E-2</v>
+        <v>1.9211766126097141E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">

--- a/src/asset/download/metode-regula-falsi.xlsx
+++ b/src/asset/download/metode-regula-falsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reyhan Haqiqi\Downloads\project-lecture-metnum\src\asset\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE58C55-9687-427A-8A86-8E7555622C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CF6ED1-DC1F-4307-8A88-C3AC72109364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CC101EF-86E5-4B40-A8FE-99A72FB4265E}"/>
   </bookViews>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B0B289-ABA4-4593-854B-2FC72C527F4B}">
   <dimension ref="A1:H756"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -582,26 +582,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
         <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" ref="D6:E8" si="0">(B6^3)-(B6^2)-B6+1</f>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F6" s="5">
         <f>C6-((E6*(C6-B6))/(E6-D6))</f>
-        <v>3.3076923076923075</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="G6" s="5">
         <f>(F6^3)-(F6^2)-F6+1</f>
-        <v>22.940373236231224</v>
+        <v>2.0991253644314871</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -611,31 +611,31 @@
       </c>
       <c r="B7" s="5">
         <f>IF(D6*G6&gt;0,F6,B6)</f>
-        <v>3.3076923076923075</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="C7" s="4">
         <f>IF(D6*G6&lt;0,F6,C6)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>22.940373236231224</v>
+        <v>2.0991253644314871</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5">
         <f>C7-((E7*(C7-B7))/(E7-D7))</f>
-        <v>2.9015191199580932</v>
+        <v>1.7522935779816513</v>
       </c>
       <c r="G7" s="5">
         <f>(F7^3)-(F7^2)-F7+1</f>
-        <v>14.107015153819313</v>
+        <v>1.5576485159791784</v>
       </c>
       <c r="H7" s="5">
         <f>ABS(F7-F6)/F7</f>
-        <v>0.13998639021206266</v>
+        <v>5.9835452505609649E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -644,31 +644,31 @@
       </c>
       <c r="B8" s="5">
         <f>IF(D7*G7&gt;0,F7,B7)</f>
-        <v>2.9015191199580932</v>
+        <v>1.7522935779816513</v>
       </c>
       <c r="C8" s="4">
         <f>IF(D7*G7&lt;0,F7,C7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>14.107015153819313</v>
+        <v>1.5576485159791784</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5">
         <f>C8-((E8*(C8-B8))/(E8-D8))</f>
-        <v>2.6298458908837543</v>
+        <v>1.6717008740185251</v>
       </c>
       <c r="G8" s="5">
         <f>(F8^3)-(F8^2)-F8+1</f>
-        <v>9.6423140146604389</v>
+        <v>1.2054235151504087</v>
       </c>
       <c r="H8" s="5">
         <f>ABS(F8-F7)/F8</f>
-        <v>0.10330385898887925</v>
+        <v>4.8210002887294739E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -677,31 +677,31 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" ref="B9:B20" si="1">IF(D8*G8&gt;0,F8,B8)</f>
-        <v>2.6298458908837543</v>
+        <v>1.6717008740185251</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:C20" si="2">IF(D8*G8&lt;0,F8,C8)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" ref="D9:D20" si="3">(B9^3)-(B9^2)-B9+1</f>
-        <v>9.6423140146604389</v>
+        <v>1.2054235151504087</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ref="E9:E20" si="4">(C9^3)-(C9^2)-C9+1</f>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:F20" si="5">C9-((E9*(C9-B9))/(E9-D9))</f>
-        <v>2.4333259407873427</v>
+        <v>1.6076156209568104</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" ref="G9:G20" si="6">(F9^3)-(F9^2)-F9+1</f>
-        <v>7.0535046462814162</v>
+        <v>0.96272319381178706</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ref="H9:H20" si="7">ABS(F9-F8)/F9</f>
-        <v>8.0761868684482277E-2</v>
+        <v>3.9863542146705934E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -710,31 +710,31 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
-        <v>2.4333259407873427</v>
+        <v>1.6076156209568104</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="3"/>
-        <v>7.0535046462814162</v>
+        <v>0.96272319381178706</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="5"/>
-        <v>2.2835309004356961</v>
+        <v>1.5553143867012387</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="6"/>
-        <v>5.4094581448590038</v>
+        <v>0.78799269264369798</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="7"/>
-        <v>6.559799139265679E-2</v>
+        <v>3.36274355222166E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -743,31 +743,31 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
-        <v>2.2835309004356961</v>
+        <v>1.5553143867012387</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="3"/>
-        <v>5.4094581448590038</v>
+        <v>0.78799269264369798</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="5"/>
-        <v>2.164986058130002</v>
+        <v>1.5117426396484857</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="6"/>
-        <v>4.2954953901903785</v>
+        <v>0.65777649177175412</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="7"/>
-        <v>5.4755476073636566E-2</v>
+        <v>2.882219890475831E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -776,31 +776,31 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
-        <v>2.164986058130002</v>
+        <v>1.5117426396484857</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="3"/>
-        <v>4.2954953901903785</v>
+        <v>0.65777649177175412</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="5"/>
-        <v>2.0684843006264582</v>
+        <v>1.4748316084095232</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="6"/>
-        <v>3.5031617997261724</v>
+        <v>0.55798804803388302</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="7"/>
-        <v>4.6653367141494602E-2</v>
+        <v>2.5027285168350684E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -809,31 +809,31 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="1"/>
-        <v>2.0684843006264582</v>
+        <v>1.4748316084095232</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="3"/>
-        <v>3.5031617997261724</v>
+        <v>0.55798804803388302</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="5"/>
-        <v>1.9881753237519959</v>
+        <v>1.4431270630954334</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="6"/>
-        <v>2.9179247277444893</v>
+        <v>0.47973632457021198</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="7"/>
-        <v>4.0393307328101598E-2</v>
+        <v>2.1969337368038279E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -842,31 +842,31 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="1"/>
-        <v>1.9881753237519959</v>
+        <v>1.4431270630954334</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="3"/>
-        <v>2.9179247277444893</v>
+        <v>0.47973632457021198</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="5"/>
-        <v>1.9201484684988914</v>
+        <v>1.4155750064839494</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="6"/>
-        <v>2.472411460215759</v>
+        <v>0.41717605033088789</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="7"/>
-        <v>3.5427914231176937E-2</v>
+        <v>1.9463508811107543E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -875,31 +875,31 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="1"/>
-        <v>1.9201484684988914</v>
+        <v>1.4155750064839494</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="3"/>
-        <v>2.472411460215759</v>
+        <v>0.41717605033088789</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="5"/>
-        <v>1.8616820413736077</v>
+        <v>1.391391697405354</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="6"/>
-        <v>2.1247872985092853</v>
+        <v>0.36633122189857281</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="7"/>
-        <v>3.1405162549747401E-2</v>
+        <v>1.7380662198640481E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -908,31 +908,31 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="1"/>
-        <v>1.8616820413736077</v>
+        <v>1.391391697405354</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="3"/>
-        <v>2.1247872985092853</v>
+        <v>0.36633122189857281</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="5"/>
-        <v>1.8108185005670636</v>
+        <v>1.3699815222370266</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="6"/>
-        <v>1.8479069649000666</v>
+        <v>0.3244180651553803</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="7"/>
-        <v>2.8088701761449873E-2</v>
+        <v>1.5628075868765665E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -941,31 +941,31 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
-        <v>1.8108185005670636</v>
+        <v>1.3699815222370266</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="3"/>
-        <v>1.8479069649000666</v>
+        <v>0.3244180651553803</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="5"/>
-        <v>1.7661108823434519</v>
+        <v>1.3508832705987355</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="6"/>
-        <v>1.623502074986098</v>
+        <v>0.28943856098156262</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="7"/>
-        <v>2.5314162700978981E-2</v>
+        <v>1.4137603191892716E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -974,31 +974,31 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
-        <v>1.7661108823434519</v>
+        <v>1.3508832705987355</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="3"/>
-        <v>1.623502074986098</v>
+        <v>0.28943856098156262</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="5"/>
-        <v>1.7264646335724709</v>
+        <v>1.3337339325150284</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="6"/>
-        <v>1.4388940655741362</v>
+        <v>0.25992740606548526</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="7"/>
-        <v>2.2963834879689001E-2</v>
+        <v>1.2858140342405868E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1007,31 +1007,31 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
-        <v>1.7264646335724709</v>
+        <v>1.3337339325150284</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="3"/>
-        <v>1.4388940655741362</v>
+        <v>0.25992740606548526</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="5"/>
-        <v>1.6910352403068103</v>
+        <v>1.3182436665717465</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="6"/>
-        <v>1.28504925999705</v>
+        <v>0.23478947289795116</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="7"/>
-        <v>2.0951303923880712E-2</v>
+        <v>1.17506848969479E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1040,31 +1040,31 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
-        <v>1.6910352403068103</v>
+        <v>1.3182436665717465</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="3"/>
-        <v>1.28504925999705</v>
+        <v>0.23478947289795116</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="5"/>
-        <v>1.6591598493159418</v>
+        <v>1.3041780976053019</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="6"/>
-        <v>1.1553829019827608</v>
+        <v>0.21319250026359149</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="7"/>
-        <v>1.9211766126097141E-2</v>
+        <v>1.0785006275041311E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
